--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MENUBAR DESGIN" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Home Page</t>
   </si>
@@ -46,6 +46,93 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>USER TABLE</t>
+  </si>
+  <si>
+    <t>USR_ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>USR_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>USR_PASS</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>GETDATE()</t>
+  </si>
+  <si>
+    <t>SLOT TABLE</t>
+  </si>
+  <si>
+    <t>SLOT_ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>SLOT_NAME</t>
+  </si>
+  <si>
+    <t>CREATED_DATE</t>
+  </si>
+  <si>
+    <t>TOPIC TABLE</t>
+  </si>
+  <si>
+    <t>T_ID</t>
+  </si>
+  <si>
+    <t>TOPIC_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY REFERENCES TO (SLOT_TABLE(SLOT_ID))</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY REFERENCES TO ( USER_TABLE(USR_ID))</t>
+  </si>
+  <si>
+    <t>RULE_REFERENCES</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>RULE_TABLE</t>
+  </si>
+  <si>
+    <t>R_ID</t>
+  </si>
+  <si>
+    <t>RULE_NAME</t>
+  </si>
+  <si>
+    <t>VARCAHR(20)</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -75,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +187,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -113,12 +224,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -482,13 +609,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C10:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Home Page</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>TOPIC_TEXT</t>
+  </si>
+  <si>
+    <t>VARCHAR(3000)</t>
   </si>
 </sst>
 </file>
@@ -232,6 +238,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,11 +249,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,17 +636,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="5"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -742,119 +748,125 @@
       <c r="J6" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="MENUBAR DESGIN" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Datatable Desgin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Home Page</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>FOREIGN KEY REFERENCES TO ( USER_TABLE(USR_ID))</t>
-  </si>
-  <si>
-    <t>RULE_REFERENCES</t>
   </si>
   <si>
     <t>TINYINT</t>
@@ -617,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -796,10 +793,10 @@
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
@@ -808,31 +805,19 @@
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -840,10 +825,10 @@
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>13</v>
@@ -852,13 +837,13 @@
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D18" s="8"/>
     </row>
